--- a/data_copy_big.xlsx
+++ b/data_copy_big.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="114">
   <si>
     <t>Кураков Дмитрий Александрович</t>
   </si>
@@ -362,6 +362,12 @@
   </si>
   <si>
     <t>Иванов Иван Иванович</t>
+  </si>
+  <si>
+    <t>case</t>
+  </si>
+  <si>
+    <t>дательный</t>
   </si>
 </sst>
 </file>
@@ -679,10 +685,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -966,7 +972,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -983,7 +989,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1000,7 +1006,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -1017,7 +1023,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -1034,7 +1040,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -1051,7 +1057,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -1068,7 +1074,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -1085,7 +1091,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -1102,7 +1108,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -1119,7 +1125,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -1136,7 +1142,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>41</v>
       </c>
@@ -1153,7 +1159,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>43</v>
       </c>
@@ -1169,8 +1175,11 @@
       <c r="E28" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>46</v>
       </c>
@@ -1186,8 +1195,11 @@
       <c r="E29" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>1</v>
       </c>
@@ -1204,7 +1216,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>2</v>
       </c>
@@ -1221,7 +1233,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>3</v>
       </c>
